--- a/results/pvalue_SIDER_all_target_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_target_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.683</t>
+          <t>14.443</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.896</t>
+          <t>14.616</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.959</t>
+          <t>13.728</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14.341</t>
+          <t>13.202</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>33.915</t>
+          <t>32.252</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34.218</t>
+          <t>32.511</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.209</t>
+          <t>31.852</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31.363</t>
+          <t>30.023</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>19.889</t>
+          <t>16.173</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
